--- a/artfynd/A 65163-2020.xlsx
+++ b/artfynd/A 65163-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1046477</v>
+        <v>1046478</v>
       </c>
       <c r="B3" t="n">
-        <v>88855</v>
+        <v>88856</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Röhälla, Öl</t>
+          <t>Röhälla, 200 m SO. om Brännvinseken., Öl</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -843,7 +843,7 @@
         <v>6286224.747768444</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -885,6 +885,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Leg. Ulla-Britt Andersson &amp; Thomas Gunnarsson</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -893,19 +898,28 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Under enbuske i betad tallskog på sand.</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson</t>
+          <t>Tommy Knutsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson, Ulla-Britt Andersson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Via Tommy Knutsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Tommy Knutsson - Import Fynddatabas 2013</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1775,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57178123</v>
+        <v>55919941</v>
       </c>
       <c r="B11" t="n">
-        <v>88859</v>
+        <v>104036</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1791,47 +1805,48 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>688</v>
+        <v>1656</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgjordstjärna</t>
+          <t>Klibbveronika</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Geastrum schmidelii</t>
+          <t>Veronica triphyllos</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Vittad.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Röhälla, Öl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>592025.3228808377</v>
+        <v>592032.2303689932</v>
       </c>
       <c r="R11" t="n">
-        <v>6286253.501415404</v>
+        <v>6286339.845351437</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1853,9 +1868,14 @@
           <t>Glömminge</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Hö-Mör-5190</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2016-02-29</t>
+          <t>2015-03-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1865,7 +1885,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2016-02-29</t>
+          <t>2015-03-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1879,34 +1899,32 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Beteshage</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson</t>
+          <t>Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson, Birgitta Andersson, Bernt Andersson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Pav Johnsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14360261</v>
+        <v>57178123</v>
       </c>
       <c r="B12" t="n">
-        <v>9302</v>
+        <v>88859</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1915,60 +1933,51 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>101246</v>
+        <v>688</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Dvärgjordstjärna</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lucanus cervus</t>
+          <t>Geastrum schmidelii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Vittad.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>funnen död</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Röhälla, 500 m ONO, Öl</t>
+          <t>Röhälla, Öl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>592056.2186289916</v>
+        <v>592025.3228808377</v>
       </c>
       <c r="R12" t="n">
-        <v>6286349.704552065</v>
+        <v>6286253.501415404</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1992,7 +2001,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2009-06-01</t>
+          <t>2016-02-29</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2002,7 +2011,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2009-06-01</t>
+          <t>2016-02-29</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2010,40 +2019,37 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Huvuden av sju hanar. Spridda i anslutning till grusväg.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Beteshage</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Helena Lager</t>
+          <t>Jan-Olof Petersson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Andreas Malmqvist, Håkan Ljungberg, Petter Bohman</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för hotade arter</t>
-        </is>
-      </c>
+          <t>Jan-Olof Petersson, Birgitta Andersson, Bernt Andersson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>62317728</v>
+        <v>14360261</v>
       </c>
       <c r="B13" t="n">
         <v>9302</v>
@@ -2078,28 +2084,34 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>funnen död</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Röhälla. S. om P-platsen, Öl</t>
+          <t>Röhälla, 500 m ONO, Öl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>592067.8699322614</v>
+        <v>592056.2186289916</v>
       </c>
       <c r="R13" t="n">
-        <v>6286295.060959933</v>
+        <v>6286349.704552065</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2126,7 +2138,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2009-06-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2136,12 +2148,17 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2009-06-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Huvuden av sju hanar. Spridda i anslutning till grusväg.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2156,22 +2173,26 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Tommy Knutsson</t>
+          <t>Helena Lager</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Tommy Knutsson, Henrik Weibull</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Andreas Malmqvist, Håkan Ljungberg, Petter Bohman</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för hotade arter</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>93937826</v>
+        <v>62317728</v>
       </c>
       <c r="B14" t="n">
-        <v>9582</v>
+        <v>9302</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2180,20 +2201,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>101456</v>
+        <v>101246</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rakhorndyvel</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Onthophagus nuchicornis</t>
+          <t>Lucanus cervus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2206,33 +2227,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>vilande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>slaghåvning</t>
-        </is>
-      </c>
+          <t>funnen död</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Röhälla, Öl</t>
+          <t>Röhälla. S. om P-platsen, Öl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>592067.6253300956</v>
+        <v>592067.8699322614</v>
       </c>
       <c r="R14" t="n">
-        <v>6286256.076651155</v>
+        <v>6286295.060959933</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2259,7 +2272,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-05-29</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2269,7 +2282,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-05-29</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2283,29 +2296,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson</t>
+          <t>Tommy Knutsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson, Claes Möllersten, George Gustafsson, Lars Rigbäck</t>
+          <t>Tommy Knutsson, Henrik Weibull</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96693660</v>
+        <v>93937826</v>
       </c>
       <c r="B15" t="n">
-        <v>88857</v>
+        <v>9582</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2314,44 +2326,62 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2009</v>
+        <v>101456</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödbrun jordstjärna</t>
+          <t>Rakhorndyvel</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Geastrum rufescens</t>
+          <t>Onthophagus nuchicornis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>slaghåvning</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Röhälla, Öl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>592130.0612457211</v>
+        <v>592067.6253300956</v>
       </c>
       <c r="R15" t="n">
-        <v>6286368.893368731</v>
+        <v>6286256.076651155</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2375,7 +2405,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2021-05-29</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2385,7 +2415,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2021-05-29</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2403,30 +2433,25 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>betad tallskog, gles på sand</t>
-        </is>
-      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Jan-Olof Petersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Thomas Gunnarsson, Ingela Carlström, Tommy Carlström</t>
+          <t>Jan-Olof Petersson, Claes Möllersten, George Gustafsson, Lars Rigbäck</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108545986</v>
+        <v>96693660</v>
       </c>
       <c r="B16" t="n">
-        <v>56401</v>
+        <v>88857</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2435,49 +2460,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100048</v>
+        <v>2009</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Rödbrun jordstjärna</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Geastrum rufescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Aledal V, Öl</t>
+          <t>Röhälla, Öl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>591806.300188445</v>
+        <v>592130.0612457211</v>
       </c>
       <c r="R16" t="n">
-        <v>6285427.317065856</v>
+        <v>6286368.893368731</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2501,22 +2521,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2021-10-16</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2021-10-16</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2525,21 +2545,147 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>betad tallskog, gles på sand</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
+          <t>Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson, Ingela Carlström, Tommy Carlström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>108545986</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56401</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100048</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dryobates minor</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Aledal V, Öl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>591806.300188445</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6285427.317065856</v>
+      </c>
+      <c r="S17" t="n">
+        <v>50</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Mörbylånga</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Glömminge</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
           <t>Jan-Olof Petersson</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>Jan-Olof Petersson</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
